--- a/1toolConverter_local/backend/Cefa/cefa.xlsx
+++ b/1toolConverter_local/backend/Cefa/cefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
@@ -2442,7 +2442,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2456,19 +2456,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
@@ -3156,7 +3156,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3170,19 +3170,19 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
@@ -3462,7 +3462,7 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3476,19 +3476,19 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
@@ -3564,7 +3564,7 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3578,19 +3578,19 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
@@ -3768,7 +3768,7 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3782,19 +3782,19 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
@@ -3972,7 +3972,7 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3986,19 +3986,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
@@ -4482,7 +4482,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4496,19 +4496,19 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
@@ -4584,7 +4584,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4598,19 +4598,19 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
@@ -4686,7 +4686,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4700,19 +4700,19 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
@@ -4788,7 +4788,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4802,19 +4802,19 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
@@ -4890,7 +4890,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4904,19 +4904,19 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
@@ -4992,7 +4992,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5006,19 +5006,19 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
@@ -5094,7 +5094,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5108,19 +5108,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
@@ -5196,7 +5196,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5210,19 +5210,19 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
@@ -5298,7 +5298,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5312,19 +5312,19 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
@@ -5400,7 +5400,7 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5414,19 +5414,19 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
@@ -5502,7 +5502,7 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5516,19 +5516,19 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
@@ -5604,7 +5604,7 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5618,19 +5618,19 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
@@ -5706,7 +5706,7 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5720,19 +5720,19 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
@@ -5808,7 +5808,7 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5822,19 +5822,19 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
@@ -5910,7 +5910,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5924,19 +5924,19 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
@@ -6012,7 +6012,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6026,19 +6026,19 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
@@ -6114,7 +6114,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6128,19 +6128,19 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
@@ -6216,7 +6216,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6230,19 +6230,19 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
@@ -6318,7 +6318,7 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6332,19 +6332,19 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
@@ -6420,7 +6420,7 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6434,19 +6434,19 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
@@ -6522,7 +6522,7 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6536,19 +6536,19 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
@@ -6624,7 +6624,7 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6638,19 +6638,19 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
@@ -6726,7 +6726,7 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6740,19 +6740,19 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
@@ -6828,7 +6828,7 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6842,19 +6842,19 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
@@ -6930,7 +6930,7 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6944,19 +6944,19 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
@@ -7032,7 +7032,7 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7046,19 +7046,19 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
@@ -7134,7 +7134,7 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
@@ -7236,7 +7236,7 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7250,19 +7250,19 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
@@ -7338,7 +7338,7 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7352,19 +7352,19 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
@@ -7440,7 +7440,7 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7454,19 +7454,19 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
@@ -7542,7 +7542,7 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7556,19 +7556,19 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
@@ -7644,7 +7644,7 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7658,19 +7658,19 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
@@ -7746,7 +7746,7 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7760,19 +7760,19 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
@@ -7848,7 +7848,7 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>DIGITAL_OUTPUT</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7862,19 +7862,19 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
@@ -7950,7 +7950,7 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7976,9 +7976,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N74" t="n">
         <v>0</v>
       </c>
@@ -8052,7 +8056,7 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8078,9 +8082,13 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N75" t="n">
         <v>0</v>
       </c>
@@ -8154,7 +8162,7 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8177,12 +8185,16 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>270</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="N76" t="n">
         <v>0</v>
       </c>
@@ -8256,7 +8268,7 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8282,9 +8294,13 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
@@ -8358,7 +8374,7 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8384,9 +8400,13 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N78" t="n">
         <v>0</v>
       </c>
@@ -8460,7 +8480,7 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -8486,9 +8506,13 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
@@ -8562,7 +8586,7 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8588,9 +8612,13 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
@@ -8664,7 +8692,7 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8690,9 +8718,13 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
@@ -8766,7 +8798,7 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8792,9 +8824,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
@@ -8868,7 +8904,7 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8894,9 +8930,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
@@ -8970,7 +9010,7 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8996,9 +9036,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
@@ -9072,7 +9116,7 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9098,9 +9142,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
@@ -9174,7 +9222,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9200,9 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
@@ -9276,7 +9328,7 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9302,9 +9354,13 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N87" t="n">
         <v>0</v>
       </c>
@@ -9378,7 +9434,7 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9404,9 +9460,13 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N88" t="n">
         <v>0</v>
       </c>
@@ -9480,7 +9540,7 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -9506,9 +9566,13 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N89" t="n">
         <v>0</v>
       </c>
@@ -9582,7 +9646,7 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -9605,12 +9669,16 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>270</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
@@ -9684,7 +9752,7 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -9710,9 +9778,13 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
@@ -9786,7 +9858,7 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9812,9 +9884,13 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N92" t="n">
         <v>0</v>
       </c>
@@ -9888,7 +9964,7 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9911,12 +9987,16 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>270</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
@@ -9990,7 +10070,7 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10016,9 +10096,13 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
@@ -10092,7 +10176,7 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -10118,9 +10202,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
@@ -10194,7 +10282,7 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10220,9 +10308,13 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
@@ -10296,7 +10388,7 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10322,9 +10414,13 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
@@ -10398,7 +10494,7 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10424,9 +10520,13 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
@@ -10500,7 +10600,7 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -10526,9 +10626,13 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
@@ -10602,7 +10706,7 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -10628,9 +10732,13 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N100" t="n">
         <v>0</v>
       </c>
@@ -10704,7 +10812,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -10730,9 +10838,13 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
@@ -10806,7 +10918,7 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10832,9 +10944,13 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N102" t="n">
         <v>0</v>
       </c>
@@ -10908,7 +11024,7 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10934,9 +11050,13 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N103" t="n">
         <v>0</v>
       </c>
@@ -11010,7 +11130,7 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11036,9 +11156,13 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N104" t="n">
         <v>0</v>
       </c>
@@ -11112,7 +11236,7 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -11138,9 +11262,13 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
@@ -11214,7 +11342,7 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -11240,9 +11368,13 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N106" t="n">
         <v>0</v>
       </c>
@@ -11316,7 +11448,7 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11342,9 +11474,13 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N107" t="n">
         <v>0</v>
       </c>
@@ -11418,7 +11554,7 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -11444,9 +11580,13 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N108" t="n">
         <v>0</v>
       </c>
@@ -11520,7 +11660,7 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -11546,9 +11686,13 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N109" t="n">
         <v>0</v>
       </c>
@@ -11622,7 +11766,7 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -11648,9 +11792,13 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N110" t="n">
         <v>0</v>
       </c>
@@ -11724,7 +11872,7 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -11750,9 +11898,13 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N111" t="n">
         <v>0</v>
       </c>
@@ -11826,7 +11978,7 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ANALOG_INPUT_OUTPUT</t>
+          <t>ANALOG_OUTPUT</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -11852,9 +12004,13 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
       <c r="N112" t="n">
         <v>0</v>
       </c>
@@ -11954,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
@@ -12056,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
@@ -12158,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
@@ -12260,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
@@ -12362,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
@@ -12464,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
@@ -12566,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
@@ -12668,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="n">
@@ -12770,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="n">
@@ -12872,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="n">
@@ -12974,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="n">
@@ -13076,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="n">
@@ -13178,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="n">
@@ -13280,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="n">
@@ -13382,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
@@ -13484,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
@@ -13586,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="n">
@@ -13688,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
@@ -13790,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
@@ -13892,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="n">
@@ -13994,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
@@ -14096,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
@@ -14198,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
@@ -14300,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
@@ -14402,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="n">
@@ -14504,7 +14660,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="n">
@@ -14606,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
@@ -14708,7 +14864,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="n">
@@ -14810,7 +14966,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
@@ -14912,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
@@ -15014,7 +15170,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
@@ -15120,7 +15276,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="n">
@@ -15226,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="n">
@@ -15332,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="n">
@@ -15438,7 +15594,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="n">
@@ -15544,7 +15700,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="n">
@@ -15650,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="n">
@@ -15756,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="n">
@@ -15862,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="n">
@@ -15968,7 +16124,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="n">
@@ -16074,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
@@ -16180,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
@@ -16286,7 +16442,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="n">
@@ -16392,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="n">
@@ -16498,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
@@ -16604,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
@@ -16710,7 +16866,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
@@ -16816,7 +16972,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
@@ -16922,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="n">
@@ -17028,7 +17184,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="n">
@@ -17134,7 +17290,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="n">
@@ -17240,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
@@ -17346,7 +17502,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
@@ -17452,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="n">
@@ -17558,7 +17714,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="n">
@@ -17664,7 +17820,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
@@ -17770,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="n">
@@ -17876,7 +18032,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="n">
@@ -17982,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="n">
@@ -18088,7 +18244,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="n">
@@ -18194,7 +18350,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="n">
@@ -18300,7 +18456,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
@@ -18406,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
@@ -18512,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="n">
@@ -18618,7 +18774,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="n">
@@ -18724,7 +18880,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="n">
@@ -18826,7 +18982,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="n">
@@ -18928,7 +19084,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
@@ -19030,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="n">
@@ -19132,7 +19288,7 @@
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
@@ -19234,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="n">
@@ -19336,7 +19492,7 @@
         <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="n">
@@ -19438,7 +19594,7 @@
         <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="n">
@@ -19540,7 +19696,7 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="n">
@@ -19642,7 +19798,7 @@
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="n">
@@ -19744,7 +19900,7 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
@@ -19846,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
@@ -19948,7 +20104,7 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="n">
@@ -20050,7 +20206,7 @@
         <v>0</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="n">
@@ -20152,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="n">
@@ -20254,7 +20410,7 @@
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="n">
@@ -20356,7 +20512,7 @@
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
@@ -20458,7 +20614,7 @@
         <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
@@ -20560,7 +20716,7 @@
         <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
@@ -20662,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="n">
@@ -20764,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
@@ -20866,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="n">
@@ -20968,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
@@ -21070,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
@@ -21172,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
@@ -21274,7 +21430,7 @@
         <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="n">

--- a/1toolConverter_local/backend/Cefa/cefa.xlsx
+++ b/1toolConverter_local/backend/Cefa/cefa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD203"/>
+  <dimension ref="A1:AD207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,8 +641,10 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -743,8 +745,10 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -845,8 +849,10 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -947,8 +953,10 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1049,8 +1057,10 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1151,8 +1161,10 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1253,8 +1265,10 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1355,8 +1369,10 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1457,8 +1473,10 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1559,8 +1577,10 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1661,8 +1681,10 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1763,8 +1785,10 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1865,8 +1889,10 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1967,8 +1993,10 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -2069,8 +2097,10 @@
       <c r="O16" t="n">
         <v>0</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2171,8 +2201,10 @@
       <c r="O17" t="n">
         <v>0</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2273,8 +2305,10 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -2375,8 +2409,10 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2477,8 +2513,10 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2579,8 +2617,10 @@
       <c r="O21" t="n">
         <v>0</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2681,8 +2721,10 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2783,8 +2825,10 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2885,8 +2929,10 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2987,8 +3033,10 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -3089,8 +3137,10 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -3191,8 +3241,10 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -3293,8 +3345,10 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3395,8 +3449,10 @@
       <c r="O29" t="n">
         <v>0</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -3497,8 +3553,10 @@
       <c r="O30" t="n">
         <v>0</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -3599,8 +3657,10 @@
       <c r="O31" t="n">
         <v>0</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3701,8 +3761,10 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3803,8 +3865,10 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3905,8 +3969,10 @@
       <c r="O34" t="n">
         <v>0</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -4007,8 +4073,10 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -4109,8 +4177,10 @@
       <c r="O36" t="n">
         <v>0</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -4211,8 +4281,10 @@
       <c r="O37" t="n">
         <v>0</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -4313,8 +4385,10 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -4415,8 +4489,10 @@
       <c r="O39" t="n">
         <v>0</v>
       </c>
-      <c r="P39" t="n">
-        <v>0</v>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -4517,8 +4593,10 @@
       <c r="O40" t="n">
         <v>0</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -4619,8 +4697,10 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -4721,8 +4801,10 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -4823,8 +4905,10 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -4925,8 +5009,10 @@
       <c r="O44" t="n">
         <v>0</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -5027,8 +5113,10 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -5129,8 +5217,10 @@
       <c r="O46" t="n">
         <v>0</v>
       </c>
-      <c r="P46" t="n">
-        <v>0</v>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -5231,8 +5321,10 @@
       <c r="O47" t="n">
         <v>0</v>
       </c>
-      <c r="P47" t="n">
-        <v>0</v>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -5333,8 +5425,10 @@
       <c r="O48" t="n">
         <v>0</v>
       </c>
-      <c r="P48" t="n">
-        <v>0</v>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -5435,8 +5529,10 @@
       <c r="O49" t="n">
         <v>0</v>
       </c>
-      <c r="P49" t="n">
-        <v>0</v>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -5537,8 +5633,10 @@
       <c r="O50" t="n">
         <v>0</v>
       </c>
-      <c r="P50" t="n">
-        <v>0</v>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -5639,8 +5737,10 @@
       <c r="O51" t="n">
         <v>0</v>
       </c>
-      <c r="P51" t="n">
-        <v>0</v>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -5741,8 +5841,10 @@
       <c r="O52" t="n">
         <v>0</v>
       </c>
-      <c r="P52" t="n">
-        <v>0</v>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -5843,8 +5945,10 @@
       <c r="O53" t="n">
         <v>0</v>
       </c>
-      <c r="P53" t="n">
-        <v>0</v>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -5945,8 +6049,10 @@
       <c r="O54" t="n">
         <v>0</v>
       </c>
-      <c r="P54" t="n">
-        <v>0</v>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -6047,8 +6153,10 @@
       <c r="O55" t="n">
         <v>0</v>
       </c>
-      <c r="P55" t="n">
-        <v>0</v>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -6149,8 +6257,10 @@
       <c r="O56" t="n">
         <v>0</v>
       </c>
-      <c r="P56" t="n">
-        <v>0</v>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -6251,8 +6361,10 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
-      <c r="P57" t="n">
-        <v>0</v>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -6353,8 +6465,10 @@
       <c r="O58" t="n">
         <v>0</v>
       </c>
-      <c r="P58" t="n">
-        <v>0</v>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -6455,8 +6569,10 @@
       <c r="O59" t="n">
         <v>0</v>
       </c>
-      <c r="P59" t="n">
-        <v>0</v>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -6557,8 +6673,10 @@
       <c r="O60" t="n">
         <v>0</v>
       </c>
-      <c r="P60" t="n">
-        <v>0</v>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -6659,8 +6777,10 @@
       <c r="O61" t="n">
         <v>0</v>
       </c>
-      <c r="P61" t="n">
-        <v>0</v>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -6761,8 +6881,10 @@
       <c r="O62" t="n">
         <v>0</v>
       </c>
-      <c r="P62" t="n">
-        <v>0</v>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -6863,8 +6985,10 @@
       <c r="O63" t="n">
         <v>0</v>
       </c>
-      <c r="P63" t="n">
-        <v>0</v>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -6965,8 +7089,10 @@
       <c r="O64" t="n">
         <v>0</v>
       </c>
-      <c r="P64" t="n">
-        <v>0</v>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -7067,8 +7193,10 @@
       <c r="O65" t="n">
         <v>0</v>
       </c>
-      <c r="P65" t="n">
-        <v>0</v>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -7169,8 +7297,10 @@
       <c r="O66" t="n">
         <v>0</v>
       </c>
-      <c r="P66" t="n">
-        <v>0</v>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -7271,8 +7401,10 @@
       <c r="O67" t="n">
         <v>0</v>
       </c>
-      <c r="P67" t="n">
-        <v>0</v>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -7373,8 +7505,10 @@
       <c r="O68" t="n">
         <v>0</v>
       </c>
-      <c r="P68" t="n">
-        <v>0</v>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -7475,8 +7609,10 @@
       <c r="O69" t="n">
         <v>0</v>
       </c>
-      <c r="P69" t="n">
-        <v>0</v>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -7536,7 +7672,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RESERVA_1</t>
+          <t>RESERVA_1_2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -7577,8 +7713,10 @@
       <c r="O70" t="n">
         <v>0</v>
       </c>
-      <c r="P70" t="n">
-        <v>0</v>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -7638,7 +7776,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>RESERVA_2</t>
+          <t>RESERVA_2_2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -7679,8 +7817,10 @@
       <c r="O71" t="n">
         <v>0</v>
       </c>
-      <c r="P71" t="n">
-        <v>0</v>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -7740,7 +7880,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>RESERVA_3</t>
+          <t>RESERVA_3_2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -7781,8 +7921,10 @@
       <c r="O72" t="n">
         <v>0</v>
       </c>
-      <c r="P72" t="n">
-        <v>0</v>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -7883,8 +8025,10 @@
       <c r="O73" t="n">
         <v>0</v>
       </c>
-      <c r="P73" t="n">
-        <v>0</v>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -7989,8 +8133,10 @@
       <c r="O74" t="n">
         <v>0</v>
       </c>
-      <c r="P74" t="n">
-        <v>0</v>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -8095,8 +8241,10 @@
       <c r="O75" t="n">
         <v>0</v>
       </c>
-      <c r="P75" t="n">
-        <v>0</v>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -8201,8 +8349,10 @@
       <c r="O76" t="n">
         <v>0</v>
       </c>
-      <c r="P76" t="n">
-        <v>0</v>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -8307,8 +8457,10 @@
       <c r="O77" t="n">
         <v>0</v>
       </c>
-      <c r="P77" t="n">
-        <v>0</v>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -8413,8 +8565,10 @@
       <c r="O78" t="n">
         <v>0</v>
       </c>
-      <c r="P78" t="n">
-        <v>0</v>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
@@ -8519,8 +8673,10 @@
       <c r="O79" t="n">
         <v>0</v>
       </c>
-      <c r="P79" t="n">
-        <v>0</v>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -8625,8 +8781,10 @@
       <c r="O80" t="n">
         <v>0</v>
       </c>
-      <c r="P80" t="n">
-        <v>0</v>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -8731,8 +8889,10 @@
       <c r="O81" t="n">
         <v>0</v>
       </c>
-      <c r="P81" t="n">
-        <v>0</v>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -8837,8 +8997,10 @@
       <c r="O82" t="n">
         <v>0</v>
       </c>
-      <c r="P82" t="n">
-        <v>0</v>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -8943,8 +9105,10 @@
       <c r="O83" t="n">
         <v>0</v>
       </c>
-      <c r="P83" t="n">
-        <v>0</v>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -9049,8 +9213,10 @@
       <c r="O84" t="n">
         <v>0</v>
       </c>
-      <c r="P84" t="n">
-        <v>0</v>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -9155,8 +9321,10 @@
       <c r="O85" t="n">
         <v>0</v>
       </c>
-      <c r="P85" t="n">
-        <v>0</v>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -9261,8 +9429,10 @@
       <c r="O86" t="n">
         <v>0</v>
       </c>
-      <c r="P86" t="n">
-        <v>0</v>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -9367,8 +9537,10 @@
       <c r="O87" t="n">
         <v>0</v>
       </c>
-      <c r="P87" t="n">
-        <v>0</v>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -9473,8 +9645,10 @@
       <c r="O88" t="n">
         <v>0</v>
       </c>
-      <c r="P88" t="n">
-        <v>0</v>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -9579,8 +9753,10 @@
       <c r="O89" t="n">
         <v>0</v>
       </c>
-      <c r="P89" t="n">
-        <v>0</v>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
@@ -9685,8 +9861,10 @@
       <c r="O90" t="n">
         <v>0</v>
       </c>
-      <c r="P90" t="n">
-        <v>0</v>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -9791,8 +9969,10 @@
       <c r="O91" t="n">
         <v>0</v>
       </c>
-      <c r="P91" t="n">
-        <v>0</v>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -9897,8 +10077,10 @@
       <c r="O92" t="n">
         <v>0</v>
       </c>
-      <c r="P92" t="n">
-        <v>0</v>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
@@ -10003,8 +10185,10 @@
       <c r="O93" t="n">
         <v>0</v>
       </c>
-      <c r="P93" t="n">
-        <v>0</v>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q93" t="n">
         <v>0</v>
@@ -10109,8 +10293,10 @@
       <c r="O94" t="n">
         <v>0</v>
       </c>
-      <c r="P94" t="n">
-        <v>0</v>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -10215,8 +10401,10 @@
       <c r="O95" t="n">
         <v>0</v>
       </c>
-      <c r="P95" t="n">
-        <v>0</v>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -10321,8 +10509,10 @@
       <c r="O96" t="n">
         <v>0</v>
       </c>
-      <c r="P96" t="n">
-        <v>0</v>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -10427,8 +10617,10 @@
       <c r="O97" t="n">
         <v>0</v>
       </c>
-      <c r="P97" t="n">
-        <v>0</v>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
@@ -10533,8 +10725,10 @@
       <c r="O98" t="n">
         <v>0</v>
       </c>
-      <c r="P98" t="n">
-        <v>0</v>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -10639,8 +10833,10 @@
       <c r="O99" t="n">
         <v>0</v>
       </c>
-      <c r="P99" t="n">
-        <v>0</v>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -10745,8 +10941,10 @@
       <c r="O100" t="n">
         <v>0</v>
       </c>
-      <c r="P100" t="n">
-        <v>0</v>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -10851,8 +11049,10 @@
       <c r="O101" t="n">
         <v>0</v>
       </c>
-      <c r="P101" t="n">
-        <v>0</v>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
@@ -10957,8 +11157,10 @@
       <c r="O102" t="n">
         <v>0</v>
       </c>
-      <c r="P102" t="n">
-        <v>0</v>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
@@ -11063,8 +11265,10 @@
       <c r="O103" t="n">
         <v>0</v>
       </c>
-      <c r="P103" t="n">
-        <v>0</v>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
@@ -11169,8 +11373,10 @@
       <c r="O104" t="n">
         <v>0</v>
       </c>
-      <c r="P104" t="n">
-        <v>0</v>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
@@ -11275,8 +11481,10 @@
       <c r="O105" t="n">
         <v>0</v>
       </c>
-      <c r="P105" t="n">
-        <v>0</v>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q105" t="n">
         <v>0</v>
@@ -11381,8 +11589,10 @@
       <c r="O106" t="n">
         <v>0</v>
       </c>
-      <c r="P106" t="n">
-        <v>0</v>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q106" t="n">
         <v>0</v>
@@ -11487,8 +11697,10 @@
       <c r="O107" t="n">
         <v>0</v>
       </c>
-      <c r="P107" t="n">
-        <v>0</v>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -11593,8 +11805,10 @@
       <c r="O108" t="n">
         <v>0</v>
       </c>
-      <c r="P108" t="n">
-        <v>0</v>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
@@ -11699,8 +11913,10 @@
       <c r="O109" t="n">
         <v>0</v>
       </c>
-      <c r="P109" t="n">
-        <v>0</v>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
@@ -11805,8 +12021,10 @@
       <c r="O110" t="n">
         <v>0</v>
       </c>
-      <c r="P110" t="n">
-        <v>0</v>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q110" t="n">
         <v>0</v>
@@ -11911,8 +12129,10 @@
       <c r="O111" t="n">
         <v>0</v>
       </c>
-      <c r="P111" t="n">
-        <v>0</v>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q111" t="n">
         <v>0</v>
@@ -12017,8 +12237,10 @@
       <c r="O112" t="n">
         <v>0</v>
       </c>
-      <c r="P112" t="n">
-        <v>0</v>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q112" t="n">
         <v>0</v>
@@ -12078,7 +12300,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>COMPRESOR_1</t>
+          <t>COMPRESOR_1_2</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -12119,8 +12341,10 @@
       <c r="O113" t="n">
         <v>0</v>
       </c>
-      <c r="P113" t="n">
-        <v>0</v>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q113" t="n">
         <v>0</v>
@@ -12180,7 +12404,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>COMPRESOR_2</t>
+          <t>COMPRESOR_2_2</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -12221,8 +12445,10 @@
       <c r="O114" t="n">
         <v>0</v>
       </c>
-      <c r="P114" t="n">
-        <v>0</v>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q114" t="n">
         <v>0</v>
@@ -12282,7 +12508,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SECADOR_1</t>
+          <t>SECADOR_1_2</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -12323,8 +12549,10 @@
       <c r="O115" t="n">
         <v>0</v>
       </c>
-      <c r="P115" t="n">
-        <v>0</v>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q115" t="n">
         <v>0</v>
@@ -12384,7 +12612,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SECADOR_2</t>
+          <t>SECADOR_2_2</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -12425,8 +12653,10 @@
       <c r="O116" t="n">
         <v>0</v>
       </c>
-      <c r="P116" t="n">
-        <v>0</v>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
@@ -12486,7 +12716,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ENFRIADORA_1</t>
+          <t>ENFRIADORA_1_2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -12527,8 +12757,10 @@
       <c r="O117" t="n">
         <v>0</v>
       </c>
-      <c r="P117" t="n">
-        <v>0</v>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q117" t="n">
         <v>0</v>
@@ -12588,7 +12820,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ENFRIADORA_2</t>
+          <t>ENFRIADORA_2_2</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -12629,8 +12861,10 @@
       <c r="O118" t="n">
         <v>0</v>
       </c>
-      <c r="P118" t="n">
-        <v>0</v>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q118" t="n">
         <v>0</v>
@@ -12690,7 +12924,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BOMBA_1</t>
+          <t>BOMBA_1_2</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -12731,8 +12965,10 @@
       <c r="O119" t="n">
         <v>0</v>
       </c>
-      <c r="P119" t="n">
-        <v>0</v>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q119" t="n">
         <v>0</v>
@@ -12792,7 +13028,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BOMBA_2</t>
+          <t>BOMBA_2_2</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -12833,8 +13069,10 @@
       <c r="O120" t="n">
         <v>0</v>
       </c>
-      <c r="P120" t="n">
-        <v>0</v>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q120" t="n">
         <v>0</v>
@@ -12894,7 +13132,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>BOMBA_3</t>
+          <t>BOMBA_3_2</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -12935,8 +13173,10 @@
       <c r="O121" t="n">
         <v>0</v>
       </c>
-      <c r="P121" t="n">
-        <v>0</v>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q121" t="n">
         <v>0</v>
@@ -12996,7 +13236,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BOMBA_4</t>
+          <t>BOMBA_4_2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -13037,8 +13277,10 @@
       <c r="O122" t="n">
         <v>0</v>
       </c>
-      <c r="P122" t="n">
-        <v>0</v>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q122" t="n">
         <v>0</v>
@@ -13098,7 +13340,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>BOMBA_5</t>
+          <t>BOMBA_5_2</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -13139,8 +13381,10 @@
       <c r="O123" t="n">
         <v>0</v>
       </c>
-      <c r="P123" t="n">
-        <v>0</v>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q123" t="n">
         <v>0</v>
@@ -13200,7 +13444,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>BOMBA_6</t>
+          <t>BOMBA_6_2</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -13241,8 +13485,10 @@
       <c r="O124" t="n">
         <v>0</v>
       </c>
-      <c r="P124" t="n">
-        <v>0</v>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q124" t="n">
         <v>0</v>
@@ -13302,7 +13548,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>BOMBA_7</t>
+          <t>BOMBA_7_2</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -13343,8 +13589,10 @@
       <c r="O125" t="n">
         <v>0</v>
       </c>
-      <c r="P125" t="n">
-        <v>0</v>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
@@ -13404,7 +13652,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>VENTILACION_AMBIENTE</t>
+          <t>VENTILACION_AMBIENTE_2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -13445,8 +13693,10 @@
       <c r="O126" t="n">
         <v>0</v>
       </c>
-      <c r="P126" t="n">
-        <v>0</v>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
@@ -13506,7 +13756,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ENFRIADORA_3</t>
+          <t>ENFRIADORA_3_2</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -13547,8 +13797,10 @@
       <c r="O127" t="n">
         <v>0</v>
       </c>
-      <c r="P127" t="n">
-        <v>0</v>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q127" t="n">
         <v>0</v>
@@ -13608,7 +13860,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ENFRIADORA_4</t>
+          <t>ENFRIADORA_4_2</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -13649,8 +13901,10 @@
       <c r="O128" t="n">
         <v>0</v>
       </c>
-      <c r="P128" t="n">
-        <v>0</v>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
@@ -13710,7 +13964,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>COMPUERTA_1</t>
+          <t>COMPUERTA_1_2</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -13751,8 +14005,10 @@
       <c r="O129" t="n">
         <v>0</v>
       </c>
-      <c r="P129" t="n">
-        <v>0</v>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q129" t="n">
         <v>0</v>
@@ -13812,7 +14068,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>COMPUERTA_2</t>
+          <t>COMPUERTA_2_2</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -13853,8 +14109,10 @@
       <c r="O130" t="n">
         <v>0</v>
       </c>
-      <c r="P130" t="n">
-        <v>0</v>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q130" t="n">
         <v>0</v>
@@ -13914,7 +14172,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>COMPUERTA_3</t>
+          <t>COMPUERTA_3_2</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -13955,8 +14213,10 @@
       <c r="O131" t="n">
         <v>0</v>
       </c>
-      <c r="P131" t="n">
-        <v>0</v>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
@@ -14016,7 +14276,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>COMPUERTA_4</t>
+          <t>COMPUERTA_4_2</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -14057,8 +14317,10 @@
       <c r="O132" t="n">
         <v>0</v>
       </c>
-      <c r="P132" t="n">
-        <v>0</v>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q132" t="n">
         <v>0</v>
@@ -14118,7 +14380,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_1_1</t>
+          <t>INTERCAMBIADOR_1_1_2</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -14159,8 +14421,10 @@
       <c r="O133" t="n">
         <v>0</v>
       </c>
-      <c r="P133" t="n">
-        <v>0</v>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q133" t="n">
         <v>0</v>
@@ -14220,7 +14484,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_1_2</t>
+          <t>INTERCAMBIADOR_1_2_2</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -14261,8 +14525,10 @@
       <c r="O134" t="n">
         <v>0</v>
       </c>
-      <c r="P134" t="n">
-        <v>0</v>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q134" t="n">
         <v>0</v>
@@ -14322,7 +14588,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_2_1</t>
+          <t>INTERCAMBIADOR_2_1_2</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -14363,8 +14629,10 @@
       <c r="O135" t="n">
         <v>0</v>
       </c>
-      <c r="P135" t="n">
-        <v>0</v>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
@@ -14424,7 +14692,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_2_2</t>
+          <t>INTERCAMBIADOR_2_2_2</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -14465,8 +14733,10 @@
       <c r="O136" t="n">
         <v>0</v>
       </c>
-      <c r="P136" t="n">
-        <v>0</v>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q136" t="n">
         <v>0</v>
@@ -14526,7 +14796,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>VALVULA_SECADOR_1</t>
+          <t>VALVULA_SECADOR_1_2</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -14567,8 +14837,10 @@
       <c r="O137" t="n">
         <v>0</v>
       </c>
-      <c r="P137" t="n">
-        <v>0</v>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q137" t="n">
         <v>0</v>
@@ -14628,7 +14900,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>VALVULA_SECADOR_2</t>
+          <t>VALVULA_SECADOR_2_2</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -14669,8 +14941,10 @@
       <c r="O138" t="n">
         <v>0</v>
       </c>
-      <c r="P138" t="n">
-        <v>0</v>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
@@ -14730,7 +15004,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>VALVULA_LLENADO</t>
+          <t>VALVULA_LLENADO_2</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -14771,8 +15045,10 @@
       <c r="O139" t="n">
         <v>0</v>
       </c>
-      <c r="P139" t="n">
-        <v>0</v>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q139" t="n">
         <v>0</v>
@@ -14832,7 +15108,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>RESERVA_1</t>
+          <t>RESERVA_1_3</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -14873,8 +15149,10 @@
       <c r="O140" t="n">
         <v>0</v>
       </c>
-      <c r="P140" t="n">
-        <v>0</v>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q140" t="n">
         <v>0</v>
@@ -14934,7 +15212,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RESERVA_2</t>
+          <t>RESERVA_2_3</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -14975,8 +15253,10 @@
       <c r="O141" t="n">
         <v>0</v>
       </c>
-      <c r="P141" t="n">
-        <v>0</v>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q141" t="n">
         <v>0</v>
@@ -15036,7 +15316,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>RESERVA_3</t>
+          <t>RESERVA_3_3</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -15077,8 +15357,10 @@
       <c r="O142" t="n">
         <v>0</v>
       </c>
-      <c r="P142" t="n">
-        <v>0</v>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
@@ -15138,7 +15420,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>RESERVA_4</t>
+          <t>RESERVA_4_2</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -15179,8 +15461,10 @@
       <c r="O143" t="n">
         <v>0</v>
       </c>
-      <c r="P143" t="n">
-        <v>0</v>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
       </c>
       <c r="Q143" t="n">
         <v>0</v>
@@ -15240,12 +15524,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>AL_1</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>AL 1 - 24VDC_EXT_OK</t>
+          <t>AL 0 - SEG_OK</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -15285,15 +15569,17 @@
       <c r="O144" t="n">
         <v>0</v>
       </c>
-      <c r="P144" t="n">
-        <v>0</v>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>0x1</t>
+        </is>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>BIT 1</t>
+          <t>BIT 0</t>
         </is>
       </c>
       <c r="S144" t="inlineStr"/>
@@ -15346,12 +15632,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>AL_2</t>
+          <t>AL_1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>AL 2 - PROT_230_AUX</t>
+          <t>AL 1 - 24VDC_EXT_OK</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -15391,15 +15677,17 @@
       <c r="O145" t="n">
         <v>0</v>
       </c>
-      <c r="P145" t="n">
-        <v>0</v>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>0x2</t>
+        </is>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>BIT 2</t>
+          <t>BIT 1</t>
         </is>
       </c>
       <c r="S145" t="inlineStr"/>
@@ -15452,12 +15740,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>AL_3</t>
+          <t>AL_2</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>AL 3 - PROT_SKID_1_1</t>
+          <t>AL 2 - PROT_230_AUX</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -15497,15 +15785,17 @@
       <c r="O146" t="n">
         <v>0</v>
       </c>
-      <c r="P146" t="n">
-        <v>0</v>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
       </c>
       <c r="Q146" t="n">
         <v>0</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>BIT 3</t>
+          <t>BIT 2</t>
         </is>
       </c>
       <c r="S146" t="inlineStr"/>
@@ -15558,12 +15848,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>AL_4</t>
+          <t>AL_3</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>AL 4 - PROT_SKID_1_2</t>
+          <t>AL 3 - PROT_SKID_1_1</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -15603,15 +15893,17 @@
       <c r="O147" t="n">
         <v>0</v>
       </c>
-      <c r="P147" t="n">
-        <v>0</v>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>0x8</t>
+        </is>
       </c>
       <c r="Q147" t="n">
         <v>0</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>BIT 4</t>
+          <t>BIT 3</t>
         </is>
       </c>
       <c r="S147" t="inlineStr"/>
@@ -15664,12 +15956,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>AL_5</t>
+          <t>AL_4</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>AL 5 - PROT_SKID_A2</t>
+          <t>AL 4 - PROT_SKID_1_2</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -15709,15 +16001,17 @@
       <c r="O148" t="n">
         <v>0</v>
       </c>
-      <c r="P148" t="n">
-        <v>0</v>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>0x10</t>
+        </is>
       </c>
       <c r="Q148" t="n">
         <v>0</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>BIT 5</t>
+          <t>BIT 4</t>
         </is>
       </c>
       <c r="S148" t="inlineStr"/>
@@ -15770,12 +16064,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>AL_6</t>
+          <t>AL_5</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>AL 6 - PROT_SKID_4_1</t>
+          <t>AL 5 - PROT_SKID_A2</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -15815,15 +16109,17 @@
       <c r="O149" t="n">
         <v>0</v>
       </c>
-      <c r="P149" t="n">
-        <v>0</v>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>0x20</t>
+        </is>
       </c>
       <c r="Q149" t="n">
         <v>0</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>BIT 6</t>
+          <t>BIT 5</t>
         </is>
       </c>
       <c r="S149" t="inlineStr"/>
@@ -15876,12 +16172,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>AL_7</t>
+          <t>AL_6</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>AL 7 - PROT_SEPARADOR</t>
+          <t>AL 6 - PROT_SKID_4_1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -15921,15 +16217,17 @@
       <c r="O150" t="n">
         <v>0</v>
       </c>
-      <c r="P150" t="n">
-        <v>0</v>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>0x40</t>
+        </is>
       </c>
       <c r="Q150" t="n">
         <v>0</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>BIT 7</t>
+          <t>BIT 6</t>
         </is>
       </c>
       <c r="S150" t="inlineStr"/>
@@ -15982,12 +16280,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>AL_8</t>
+          <t>AL_7</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>AL 8 - PROT_PC1</t>
+          <t>AL 7 - PROT_SEPARADOR</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -16027,15 +16325,17 @@
       <c r="O151" t="n">
         <v>0</v>
       </c>
-      <c r="P151" t="n">
-        <v>0</v>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>0x80</t>
+        </is>
       </c>
       <c r="Q151" t="n">
         <v>0</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>BIT 8</t>
+          <t>BIT 7</t>
         </is>
       </c>
       <c r="S151" t="inlineStr"/>
@@ -16088,12 +16388,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>AL_9</t>
+          <t>AL_8</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>AL 9 - PROT_PC2</t>
+          <t>AL 8 - PROT_PC1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -16133,15 +16433,17 @@
       <c r="O152" t="n">
         <v>0</v>
       </c>
-      <c r="P152" t="n">
-        <v>0</v>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>0x100</t>
+        </is>
       </c>
       <c r="Q152" t="n">
         <v>0</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>BIT 9</t>
+          <t>BIT 8</t>
         </is>
       </c>
       <c r="S152" t="inlineStr"/>
@@ -16194,12 +16496,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>AL_10</t>
+          <t>AL_9</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>AL 10 - RESERVA</t>
+          <t>AL 9 - PROT_PC2</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -16239,15 +16541,17 @@
       <c r="O153" t="n">
         <v>0</v>
       </c>
-      <c r="P153" t="n">
-        <v>0</v>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>0x200</t>
+        </is>
       </c>
       <c r="Q153" t="n">
         <v>0</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>BIT 10</t>
+          <t>BIT 9</t>
         </is>
       </c>
       <c r="S153" t="inlineStr"/>
@@ -16300,12 +16604,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>AL_11</t>
+          <t>AL_10</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>AL 11 - ALARMA DEFECTO ACTIVO COMPRESOR_1</t>
+          <t>AL 10 - RESERVA</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -16345,15 +16649,17 @@
       <c r="O154" t="n">
         <v>0</v>
       </c>
-      <c r="P154" t="n">
-        <v>0</v>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>0x400</t>
+        </is>
       </c>
       <c r="Q154" t="n">
         <v>0</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>BIT 11</t>
+          <t>BIT 10</t>
         </is>
       </c>
       <c r="S154" t="inlineStr"/>
@@ -16406,12 +16712,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>AL_12</t>
+          <t>AL_11</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>AL 12 - ALARMA DEFECTO ACTIVO COMPRESOR_2</t>
+          <t>AL 11 - ALARMA DEFECTO ACTIVO COMPRESOR_1</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -16451,15 +16757,17 @@
       <c r="O155" t="n">
         <v>0</v>
       </c>
-      <c r="P155" t="n">
-        <v>0</v>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>0x800</t>
+        </is>
       </c>
       <c r="Q155" t="n">
         <v>0</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>BIT 12</t>
+          <t>BIT 11</t>
         </is>
       </c>
       <c r="S155" t="inlineStr"/>
@@ -16512,12 +16820,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>AL_13</t>
+          <t>AL_12</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>AL 13 - ALARMA DEFECTO ACTIVO SECADOR_1</t>
+          <t>AL 12 - ALARMA DEFECTO ACTIVO COMPRESOR_2</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -16557,15 +16865,17 @@
       <c r="O156" t="n">
         <v>0</v>
       </c>
-      <c r="P156" t="n">
-        <v>0</v>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>0x1000</t>
+        </is>
       </c>
       <c r="Q156" t="n">
         <v>0</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>BIT 13</t>
+          <t>BIT 12</t>
         </is>
       </c>
       <c r="S156" t="inlineStr"/>
@@ -16618,12 +16928,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>AL_14</t>
+          <t>AL_13</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>AL 14 - ALARMA DEFECTO ACTIVO SECADOR_2</t>
+          <t>AL 13 - ALARMA DEFECTO ACTIVO SECADOR_1</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -16663,15 +16973,17 @@
       <c r="O157" t="n">
         <v>0</v>
       </c>
-      <c r="P157" t="n">
-        <v>0</v>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>0x2000</t>
+        </is>
       </c>
       <c r="Q157" t="n">
         <v>0</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>BIT 14</t>
+          <t>BIT 13</t>
         </is>
       </c>
       <c r="S157" t="inlineStr"/>
@@ -16724,12 +17036,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>AL_15</t>
+          <t>AL_14</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>AL 15 - ALARMA DEFECTO ACTIVO ENFRIADORA_1</t>
+          <t>AL 14 - ALARMA DEFECTO ACTIVO SECADOR_2</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -16769,15 +17081,17 @@
       <c r="O158" t="n">
         <v>0</v>
       </c>
-      <c r="P158" t="n">
-        <v>0</v>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>0x4000</t>
+        </is>
       </c>
       <c r="Q158" t="n">
         <v>0</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>BIT 15</t>
+          <t>BIT 14</t>
         </is>
       </c>
       <c r="S158" t="inlineStr"/>
@@ -16825,17 +17139,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>AL_17</t>
+          <t>AL_15</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>AL 17 - ALARMA DEFECTO ACTIVO BOMBA_1</t>
+          <t>AL 15 - ALARMA DEFECTO ACTIVO ENFRIADORA_1</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -16875,15 +17189,17 @@
       <c r="O159" t="n">
         <v>0</v>
       </c>
-      <c r="P159" t="n">
-        <v>0</v>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>0x8000</t>
+        </is>
       </c>
       <c r="Q159" t="n">
         <v>0</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>BIT 17</t>
+          <t>BIT 15</t>
         </is>
       </c>
       <c r="S159" t="inlineStr"/>
@@ -16936,12 +17252,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>AL_18</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>AL 18 - ALARMA DEFECTO ACTIVO BOMBA_2</t>
+          <t>AL 16 - ALARMA DEFECTO ACTIVO ENFRIADORA_2</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -16981,15 +17297,17 @@
       <c r="O160" t="n">
         <v>0</v>
       </c>
-      <c r="P160" t="n">
-        <v>0</v>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>0x1</t>
+        </is>
       </c>
       <c r="Q160" t="n">
         <v>0</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>BIT 18</t>
+          <t>BIT 16</t>
         </is>
       </c>
       <c r="S160" t="inlineStr"/>
@@ -17042,12 +17360,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>AL_19</t>
+          <t>AL_17</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>AL 19 - ALARMA DEFECTO ACTIVO BOMBA_3</t>
+          <t>AL 17 - ALARMA DEFECTO ACTIVO BOMBA_1</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -17087,15 +17405,17 @@
       <c r="O161" t="n">
         <v>0</v>
       </c>
-      <c r="P161" t="n">
-        <v>0</v>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>0x2</t>
+        </is>
       </c>
       <c r="Q161" t="n">
         <v>0</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>BIT 19</t>
+          <t>BIT 17</t>
         </is>
       </c>
       <c r="S161" t="inlineStr"/>
@@ -17148,12 +17468,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>AL_20</t>
+          <t>AL_18</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>AL 20 - ALARMA DEFECTO ACTIVO BOMBA_4</t>
+          <t>AL 18 - ALARMA DEFECTO ACTIVO BOMBA_2</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -17193,15 +17513,17 @@
       <c r="O162" t="n">
         <v>0</v>
       </c>
-      <c r="P162" t="n">
-        <v>0</v>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
       </c>
       <c r="Q162" t="n">
         <v>0</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>BIT 20</t>
+          <t>BIT 18</t>
         </is>
       </c>
       <c r="S162" t="inlineStr"/>
@@ -17254,12 +17576,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>AL_21</t>
+          <t>AL_19</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>AL 21 - ALARMA DEFECTO ACTIVO BOMBA_5</t>
+          <t>AL 19 - ALARMA DEFECTO ACTIVO BOMBA_3</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -17299,15 +17621,17 @@
       <c r="O163" t="n">
         <v>0</v>
       </c>
-      <c r="P163" t="n">
-        <v>0</v>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>0x8</t>
+        </is>
       </c>
       <c r="Q163" t="n">
         <v>0</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>BIT 21</t>
+          <t>BIT 19</t>
         </is>
       </c>
       <c r="S163" t="inlineStr"/>
@@ -17360,12 +17684,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>AL_22</t>
+          <t>AL_20</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>AL 22 - ALARMA DEFECTO ACTIVO BOMBA_6</t>
+          <t>AL 20 - ALARMA DEFECTO ACTIVO BOMBA_4</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -17405,15 +17729,17 @@
       <c r="O164" t="n">
         <v>0</v>
       </c>
-      <c r="P164" t="n">
-        <v>0</v>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>0x10</t>
+        </is>
       </c>
       <c r="Q164" t="n">
         <v>0</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>BIT 22</t>
+          <t>BIT 20</t>
         </is>
       </c>
       <c r="S164" t="inlineStr"/>
@@ -17466,12 +17792,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>AL_23</t>
+          <t>AL_21</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>AL 23 - ALARMA DEFECTO ACTIVO BOMBA_7</t>
+          <t>AL 21 - ALARMA DEFECTO ACTIVO BOMBA_5</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -17511,15 +17837,17 @@
       <c r="O165" t="n">
         <v>0</v>
       </c>
-      <c r="P165" t="n">
-        <v>0</v>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>0x20</t>
+        </is>
       </c>
       <c r="Q165" t="n">
         <v>0</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>BIT 23</t>
+          <t>BIT 21</t>
         </is>
       </c>
       <c r="S165" t="inlineStr"/>
@@ -17572,12 +17900,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>AL_24</t>
+          <t>AL_22</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>AL 24 - ALARMA DEFECTO ACTIVO VENTILACION_AMBIENTE</t>
+          <t>AL 22 - ALARMA DEFECTO ACTIVO BOMBA_6</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -17617,15 +17945,17 @@
       <c r="O166" t="n">
         <v>0</v>
       </c>
-      <c r="P166" t="n">
-        <v>0</v>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>0x40</t>
+        </is>
       </c>
       <c r="Q166" t="n">
         <v>0</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>BIT 24</t>
+          <t>BIT 22</t>
         </is>
       </c>
       <c r="S166" t="inlineStr"/>
@@ -17678,12 +18008,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>AL_25</t>
+          <t>AL_23</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>AL 25 - ALARMA DEFECTO ACTIVO ENFRIADORA_3</t>
+          <t>AL 23 - ALARMA DEFECTO ACTIVO BOMBA_7</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -17723,15 +18053,17 @@
       <c r="O167" t="n">
         <v>0</v>
       </c>
-      <c r="P167" t="n">
-        <v>0</v>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>0x80</t>
+        </is>
       </c>
       <c r="Q167" t="n">
         <v>0</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>BIT 25</t>
+          <t>BIT 23</t>
         </is>
       </c>
       <c r="S167" t="inlineStr"/>
@@ -17784,12 +18116,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>AL_26</t>
+          <t>AL_24</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>AL 26 - ALARMA DEFECTO ACTIVO ENFRIADORA_4</t>
+          <t>AL 24 - ALARMA DEFECTO ACTIVO VENTILACION_AMBIENTE</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -17829,15 +18161,17 @@
       <c r="O168" t="n">
         <v>0</v>
       </c>
-      <c r="P168" t="n">
-        <v>0</v>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>0x100</t>
+        </is>
       </c>
       <c r="Q168" t="n">
         <v>0</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>BIT 26</t>
+          <t>BIT 24</t>
         </is>
       </c>
       <c r="S168" t="inlineStr"/>
@@ -17890,12 +18224,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>AL_27</t>
+          <t>AL_25</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>AL 27 - ALARMA DEFECTO ACTIVO COMPUERTA_1</t>
+          <t>AL 25 - ALARMA DEFECTO ACTIVO ENFRIADORA_3</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -17935,15 +18269,17 @@
       <c r="O169" t="n">
         <v>0</v>
       </c>
-      <c r="P169" t="n">
-        <v>0</v>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>0x200</t>
+        </is>
       </c>
       <c r="Q169" t="n">
         <v>0</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>BIT 27</t>
+          <t>BIT 25</t>
         </is>
       </c>
       <c r="S169" t="inlineStr"/>
@@ -17996,12 +18332,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>AL_28</t>
+          <t>AL_26</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>AL 28 - ALARMA DEFECTO ACTIVO COMPUERTA_2</t>
+          <t>AL 26 - ALARMA DEFECTO ACTIVO ENFRIADORA_4</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -18041,15 +18377,17 @@
       <c r="O170" t="n">
         <v>0</v>
       </c>
-      <c r="P170" t="n">
-        <v>0</v>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>0x400</t>
+        </is>
       </c>
       <c r="Q170" t="n">
         <v>0</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>BIT 28</t>
+          <t>BIT 26</t>
         </is>
       </c>
       <c r="S170" t="inlineStr"/>
@@ -18102,12 +18440,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>AL_29</t>
+          <t>AL_27</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>AL 29 - ALARMA DEFECTO ACTIVO COMPUERTA_3</t>
+          <t>AL 27 - ALARMA DEFECTO ACTIVO COMPUERTA_1</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -18147,15 +18485,17 @@
       <c r="O171" t="n">
         <v>0</v>
       </c>
-      <c r="P171" t="n">
-        <v>0</v>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>0x800</t>
+        </is>
       </c>
       <c r="Q171" t="n">
         <v>0</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>BIT 29</t>
+          <t>BIT 27</t>
         </is>
       </c>
       <c r="S171" t="inlineStr"/>
@@ -18208,12 +18548,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>AL_30</t>
+          <t>AL_28</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>AL 30 - ALARMA DEFECTO ACTIVO COMPUERTA_4</t>
+          <t>AL 28 - ALARMA DEFECTO ACTIVO COMPUERTA_2</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -18253,15 +18593,17 @@
       <c r="O172" t="n">
         <v>0</v>
       </c>
-      <c r="P172" t="n">
-        <v>0</v>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>0x1000</t>
+        </is>
       </c>
       <c r="Q172" t="n">
         <v>0</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>BIT 30</t>
+          <t>BIT 28</t>
         </is>
       </c>
       <c r="S172" t="inlineStr"/>
@@ -18314,12 +18656,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>AL_31</t>
+          <t>AL_29</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>AL 31 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_1_1</t>
+          <t>AL 29 - ALARMA DEFECTO ACTIVO COMPUERTA_3</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -18359,15 +18701,17 @@
       <c r="O173" t="n">
         <v>0</v>
       </c>
-      <c r="P173" t="n">
-        <v>0</v>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>0x2000</t>
+        </is>
       </c>
       <c r="Q173" t="n">
         <v>0</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>BIT 31</t>
+          <t>BIT 29</t>
         </is>
       </c>
       <c r="S173" t="inlineStr"/>
@@ -18415,17 +18759,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>AL_33</t>
+          <t>AL_30</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>AL 33 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_1</t>
+          <t>AL 30 - ALARMA DEFECTO ACTIVO COMPUERTA_4</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -18435,7 +18779,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>ALARMAS_2</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -18465,15 +18809,17 @@
       <c r="O174" t="n">
         <v>0</v>
       </c>
-      <c r="P174" t="n">
-        <v>0</v>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>0x4000</t>
+        </is>
       </c>
       <c r="Q174" t="n">
         <v>0</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>BIT 1</t>
+          <t>BIT 30</t>
         </is>
       </c>
       <c r="S174" t="inlineStr"/>
@@ -18521,17 +18867,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>AL_34</t>
+          <t>AL_31</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>AL 34 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_2</t>
+          <t>AL 31 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_1_1</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -18541,7 +18887,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>ALARMAS_2</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -18571,15 +18917,17 @@
       <c r="O175" t="n">
         <v>0</v>
       </c>
-      <c r="P175" t="n">
-        <v>0</v>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>0x8000</t>
+        </is>
       </c>
       <c r="Q175" t="n">
         <v>0</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>BIT 2</t>
+          <t>BIT 31</t>
         </is>
       </c>
       <c r="S175" t="inlineStr"/>
@@ -18632,12 +18980,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>AL_35</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>AL 35 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_1</t>
+          <t>AL 32 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_1_2</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -18677,15 +19025,17 @@
       <c r="O176" t="n">
         <v>0</v>
       </c>
-      <c r="P176" t="n">
-        <v>0</v>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>0x1</t>
+        </is>
       </c>
       <c r="Q176" t="n">
         <v>0</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>BIT 3</t>
+          <t>BIT 0</t>
         </is>
       </c>
       <c r="S176" t="inlineStr"/>
@@ -18738,12 +19088,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>AL_36</t>
+          <t>AL_33</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>AL 36 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_2</t>
+          <t>AL 33 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_1</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -18783,15 +19133,17 @@
       <c r="O177" t="n">
         <v>0</v>
       </c>
-      <c r="P177" t="n">
-        <v>0</v>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>0x2</t>
+        </is>
       </c>
       <c r="Q177" t="n">
         <v>0</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>BIT 4</t>
+          <t>BIT 1</t>
         </is>
       </c>
       <c r="S177" t="inlineStr"/>
@@ -18844,12 +19196,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>AL_37</t>
+          <t>AL_34</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>AL 37 - ALARMA DEFECTO ACTIVO VALVULA_LLENADO</t>
+          <t>AL 34 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_2</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -18889,15 +19241,17 @@
       <c r="O178" t="n">
         <v>0</v>
       </c>
-      <c r="P178" t="n">
-        <v>0</v>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
       </c>
       <c r="Q178" t="n">
         <v>0</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>BIT 5</t>
+          <t>BIT 2</t>
         </is>
       </c>
       <c r="S178" t="inlineStr"/>
@@ -18950,10 +19304,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>AL_38</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
+          <t>AL_35</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>AL 35 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_1</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>ALARM</t>
@@ -18991,15 +19349,17 @@
       <c r="O179" t="n">
         <v>0</v>
       </c>
-      <c r="P179" t="n">
-        <v>0</v>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>0x8</t>
+        </is>
       </c>
       <c r="Q179" t="n">
         <v>0</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>BIT 6</t>
+          <t>BIT 3</t>
         </is>
       </c>
       <c r="S179" t="inlineStr"/>
@@ -19052,10 +19412,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>AL_39</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>AL_36</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>AL 36 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_2</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>ALARM</t>
@@ -19093,15 +19457,17 @@
       <c r="O180" t="n">
         <v>0</v>
       </c>
-      <c r="P180" t="n">
-        <v>0</v>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>0x10</t>
+        </is>
       </c>
       <c r="Q180" t="n">
         <v>0</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>BIT 7</t>
+          <t>BIT 4</t>
         </is>
       </c>
       <c r="S180" t="inlineStr"/>
@@ -19154,10 +19520,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>AL_40</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+          <t>AL_37</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>AL 37 - ALARMA DEFECTO ACTIVO VALVULA_LLENADO</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>ALARM</t>
@@ -19195,15 +19565,17 @@
       <c r="O181" t="n">
         <v>0</v>
       </c>
-      <c r="P181" t="n">
-        <v>0</v>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>0x20</t>
+        </is>
       </c>
       <c r="Q181" t="n">
         <v>0</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>BIT 8</t>
+          <t>BIT 5</t>
         </is>
       </c>
       <c r="S181" t="inlineStr"/>
@@ -19256,7 +19628,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>AL_41</t>
+          <t>AL_38</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -19297,15 +19669,17 @@
       <c r="O182" t="n">
         <v>0</v>
       </c>
-      <c r="P182" t="n">
-        <v>0</v>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>0x40</t>
+        </is>
       </c>
       <c r="Q182" t="n">
         <v>0</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>BIT 9</t>
+          <t>BIT 6</t>
         </is>
       </c>
       <c r="S182" t="inlineStr"/>
@@ -19358,7 +19732,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>AL_42</t>
+          <t>AL_39</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -19399,15 +19773,17 @@
       <c r="O183" t="n">
         <v>0</v>
       </c>
-      <c r="P183" t="n">
-        <v>0</v>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>0x80</t>
+        </is>
       </c>
       <c r="Q183" t="n">
         <v>0</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>BIT 10</t>
+          <t>BIT 7</t>
         </is>
       </c>
       <c r="S183" t="inlineStr"/>
@@ -19460,7 +19836,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>AL_43</t>
+          <t>AL_40</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
@@ -19501,15 +19877,17 @@
       <c r="O184" t="n">
         <v>0</v>
       </c>
-      <c r="P184" t="n">
-        <v>0</v>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>0x100</t>
+        </is>
       </c>
       <c r="Q184" t="n">
         <v>0</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>BIT 11</t>
+          <t>BIT 8</t>
         </is>
       </c>
       <c r="S184" t="inlineStr"/>
@@ -19562,7 +19940,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>AL_44</t>
+          <t>AL_41</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
@@ -19603,15 +19981,17 @@
       <c r="O185" t="n">
         <v>0</v>
       </c>
-      <c r="P185" t="n">
-        <v>0</v>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>0x200</t>
+        </is>
       </c>
       <c r="Q185" t="n">
         <v>0</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>BIT 12</t>
+          <t>BIT 9</t>
         </is>
       </c>
       <c r="S185" t="inlineStr"/>
@@ -19664,7 +20044,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>AL_45</t>
+          <t>AL_42</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
@@ -19705,15 +20085,17 @@
       <c r="O186" t="n">
         <v>0</v>
       </c>
-      <c r="P186" t="n">
-        <v>0</v>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>0x400</t>
+        </is>
       </c>
       <c r="Q186" t="n">
         <v>0</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>BIT 13</t>
+          <t>BIT 10</t>
         </is>
       </c>
       <c r="S186" t="inlineStr"/>
@@ -19766,7 +20148,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>AL_46</t>
+          <t>AL_43</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
@@ -19807,15 +20189,17 @@
       <c r="O187" t="n">
         <v>0</v>
       </c>
-      <c r="P187" t="n">
-        <v>0</v>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>0x800</t>
+        </is>
       </c>
       <c r="Q187" t="n">
         <v>0</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>BIT 14</t>
+          <t>BIT 11</t>
         </is>
       </c>
       <c r="S187" t="inlineStr"/>
@@ -19868,7 +20252,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>AL_47</t>
+          <t>AL_44</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
@@ -19909,15 +20293,17 @@
       <c r="O188" t="n">
         <v>0</v>
       </c>
-      <c r="P188" t="n">
-        <v>0</v>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>0x1000</t>
+        </is>
       </c>
       <c r="Q188" t="n">
         <v>0</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>BIT 15</t>
+          <t>BIT 12</t>
         </is>
       </c>
       <c r="S188" t="inlineStr"/>
@@ -19965,12 +20351,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>AL_49</t>
+          <t>AL_45</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
@@ -20011,15 +20397,17 @@
       <c r="O189" t="n">
         <v>0</v>
       </c>
-      <c r="P189" t="n">
-        <v>0</v>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>0x2000</t>
+        </is>
       </c>
       <c r="Q189" t="n">
         <v>0</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>BIT 17</t>
+          <t>BIT 13</t>
         </is>
       </c>
       <c r="S189" t="inlineStr"/>
@@ -20067,12 +20455,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>AL_50</t>
+          <t>AL_46</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
@@ -20113,15 +20501,17 @@
       <c r="O190" t="n">
         <v>0</v>
       </c>
-      <c r="P190" t="n">
-        <v>0</v>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>0x4000</t>
+        </is>
       </c>
       <c r="Q190" t="n">
         <v>0</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>BIT 18</t>
+          <t>BIT 14</t>
         </is>
       </c>
       <c r="S190" t="inlineStr"/>
@@ -20169,12 +20559,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>AL_51</t>
+          <t>AL_47</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
@@ -20215,15 +20605,17 @@
       <c r="O191" t="n">
         <v>0</v>
       </c>
-      <c r="P191" t="n">
-        <v>0</v>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>0x8000</t>
+        </is>
       </c>
       <c r="Q191" t="n">
         <v>0</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>BIT 19</t>
+          <t>BIT 15</t>
         </is>
       </c>
       <c r="S191" t="inlineStr"/>
@@ -20276,7 +20668,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>AL_52</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -20317,15 +20709,17 @@
       <c r="O192" t="n">
         <v>0</v>
       </c>
-      <c r="P192" t="n">
-        <v>0</v>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>0x1</t>
+        </is>
       </c>
       <c r="Q192" t="n">
         <v>0</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>BIT 20</t>
+          <t>BIT 16</t>
         </is>
       </c>
       <c r="S192" t="inlineStr"/>
@@ -20378,7 +20772,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>AL_53</t>
+          <t>AL_49</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
@@ -20419,15 +20813,17 @@
       <c r="O193" t="n">
         <v>0</v>
       </c>
-      <c r="P193" t="n">
-        <v>0</v>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>0x2</t>
+        </is>
       </c>
       <c r="Q193" t="n">
         <v>0</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>BIT 21</t>
+          <t>BIT 17</t>
         </is>
       </c>
       <c r="S193" t="inlineStr"/>
@@ -20480,7 +20876,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>AL_54</t>
+          <t>AL_50</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -20521,15 +20917,17 @@
       <c r="O194" t="n">
         <v>0</v>
       </c>
-      <c r="P194" t="n">
-        <v>0</v>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
       </c>
       <c r="Q194" t="n">
         <v>0</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>BIT 22</t>
+          <t>BIT 18</t>
         </is>
       </c>
       <c r="S194" t="inlineStr"/>
@@ -20582,7 +20980,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AL_55</t>
+          <t>AL_51</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -20623,15 +21021,17 @@
       <c r="O195" t="n">
         <v>0</v>
       </c>
-      <c r="P195" t="n">
-        <v>0</v>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>0x8</t>
+        </is>
       </c>
       <c r="Q195" t="n">
         <v>0</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>BIT 23</t>
+          <t>BIT 19</t>
         </is>
       </c>
       <c r="S195" t="inlineStr"/>
@@ -20684,7 +21084,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>AL_56</t>
+          <t>AL_52</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -20725,15 +21125,17 @@
       <c r="O196" t="n">
         <v>0</v>
       </c>
-      <c r="P196" t="n">
-        <v>0</v>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>0x10</t>
+        </is>
       </c>
       <c r="Q196" t="n">
         <v>0</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>BIT 24</t>
+          <t>BIT 20</t>
         </is>
       </c>
       <c r="S196" t="inlineStr"/>
@@ -20786,7 +21188,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>AL_57</t>
+          <t>AL_53</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -20827,15 +21229,17 @@
       <c r="O197" t="n">
         <v>0</v>
       </c>
-      <c r="P197" t="n">
-        <v>0</v>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>0x20</t>
+        </is>
       </c>
       <c r="Q197" t="n">
         <v>0</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>BIT 25</t>
+          <t>BIT 21</t>
         </is>
       </c>
       <c r="S197" t="inlineStr"/>
@@ -20888,7 +21292,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>AL_58</t>
+          <t>AL_54</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -20929,15 +21333,17 @@
       <c r="O198" t="n">
         <v>0</v>
       </c>
-      <c r="P198" t="n">
-        <v>0</v>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>0x40</t>
+        </is>
       </c>
       <c r="Q198" t="n">
         <v>0</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>BIT 26</t>
+          <t>BIT 22</t>
         </is>
       </c>
       <c r="S198" t="inlineStr"/>
@@ -20990,7 +21396,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>AL_59</t>
+          <t>AL_55</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
@@ -21031,15 +21437,17 @@
       <c r="O199" t="n">
         <v>0</v>
       </c>
-      <c r="P199" t="n">
-        <v>0</v>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>0x80</t>
+        </is>
       </c>
       <c r="Q199" t="n">
         <v>0</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>BIT 27</t>
+          <t>BIT 23</t>
         </is>
       </c>
       <c r="S199" t="inlineStr"/>
@@ -21092,7 +21500,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>AL_60</t>
+          <t>AL_56</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -21133,15 +21541,17 @@
       <c r="O200" t="n">
         <v>0</v>
       </c>
-      <c r="P200" t="n">
-        <v>0</v>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>0x100</t>
+        </is>
       </c>
       <c r="Q200" t="n">
         <v>0</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>BIT 28</t>
+          <t>BIT 24</t>
         </is>
       </c>
       <c r="S200" t="inlineStr"/>
@@ -21194,7 +21604,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>AL_61</t>
+          <t>AL_57</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -21235,15 +21645,17 @@
       <c r="O201" t="n">
         <v>0</v>
       </c>
-      <c r="P201" t="n">
-        <v>0</v>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>0x200</t>
+        </is>
       </c>
       <c r="Q201" t="n">
         <v>0</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>BIT 29</t>
+          <t>BIT 25</t>
         </is>
       </c>
       <c r="S201" t="inlineStr"/>
@@ -21296,7 +21708,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>AL_62</t>
+          <t>AL_58</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -21337,15 +21749,17 @@
       <c r="O202" t="n">
         <v>0</v>
       </c>
-      <c r="P202" t="n">
-        <v>0</v>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>0x400</t>
+        </is>
       </c>
       <c r="Q202" t="n">
         <v>0</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>BIT 30</t>
+          <t>BIT 26</t>
         </is>
       </c>
       <c r="S202" t="inlineStr"/>
@@ -21398,13 +21812,13 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>RESET ALARMAS</t>
+          <t>AL_59</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>COMMAND</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -21418,13 +21832,13 @@
         </is>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -21439,15 +21853,17 @@
       <c r="O203" t="n">
         <v>0</v>
       </c>
-      <c r="P203" t="n">
-        <v>0</v>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>0x800</t>
+        </is>
       </c>
       <c r="Q203" t="n">
         <v>0</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>BIT 31</t>
+          <t>BIT 27</t>
         </is>
       </c>
       <c r="S203" t="inlineStr"/>
@@ -21488,6 +21904,422 @@
         <v>0</v>
       </c>
       <c r="AD203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>AL_60</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>ALARM</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>ALARMAS_2</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>30</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>0x1000</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>BIT 28</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>{"severity":"none"}</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
+        </is>
+      </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>modbus</t>
+        </is>
+      </c>
+      <c r="Y204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+      <c r="AB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>AL_61</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>ALARM</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>ALARMAS_2</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>30</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>0x2000</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>BIT 29</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>{"severity":"none"}</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
+        </is>
+      </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>modbus</t>
+        </is>
+      </c>
+      <c r="Y205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>AL_62</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>ALARM</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>ALARMAS_2</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>30</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>0x4000</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>BIT 30</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>{"severity":"none"}</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
+        </is>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>modbus</t>
+        </is>
+      </c>
+      <c r="Y206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+      <c r="AB206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>RESET ALARMAS</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>COMMAND</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>ALARMAS_2</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>6</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>0x8000</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>BIT 31</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>{"severity":"none"}</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>modbus</t>
+        </is>
+      </c>
+      <c r="Y207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+      <c r="AB207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1toolConverter_local/backend/Cefa/cefa.xlsx
+++ b/1toolConverter_local/backend/Cefa/cefa.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -859,7 +859,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -4884,7 +4884,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -5300,7 +5300,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -5508,7 +5508,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -5820,7 +5820,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -5924,7 +5924,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -6340,7 +6340,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -7900,7 +7900,7 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -8108,7 +8108,7 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -8216,7 +8216,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -8540,7 +8540,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -8864,7 +8864,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -9080,7 +9080,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>3</v>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -9188,7 +9188,7 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -9620,7 +9620,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -9763,7 +9763,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -9836,7 +9836,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -9979,7 +9979,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -10052,7 +10052,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -10087,7 +10087,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -10160,7 +10160,7 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
@@ -10268,7 +10268,7 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -10303,7 +10303,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S94" t="inlineStr"/>
@@ -10376,7 +10376,7 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -10484,7 +10484,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
@@ -10592,7 +10592,7 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S97" t="inlineStr"/>
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -10916,7 +10916,7 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -11024,7 +11024,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S101" t="inlineStr"/>
@@ -11132,7 +11132,7 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -11167,7 +11167,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S102" t="inlineStr"/>
@@ -11240,7 +11240,7 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -11275,7 +11275,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S103" t="inlineStr"/>
@@ -11348,7 +11348,7 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S104" t="inlineStr"/>
@@ -11456,7 +11456,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>3</v>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S105" t="inlineStr"/>
@@ -11564,7 +11564,7 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>3</v>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S106" t="inlineStr"/>
@@ -11672,7 +11672,7 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S107" t="inlineStr"/>
@@ -11780,7 +11780,7 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S108" t="inlineStr"/>
@@ -11888,7 +11888,7 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -11923,7 +11923,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S109" t="inlineStr"/>
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>3</v>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S110" t="inlineStr"/>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S111" t="inlineStr"/>
@@ -12212,7 +12212,7 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -12247,7 +12247,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="S112" t="inlineStr"/>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S113" t="inlineStr"/>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S114" t="inlineStr"/>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S115" t="inlineStr"/>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S116" t="inlineStr"/>
@@ -12767,7 +12767,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S117" t="inlineStr"/>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S118" t="inlineStr"/>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S119" t="inlineStr"/>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S120" t="inlineStr"/>
@@ -13183,7 +13183,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S121" t="inlineStr"/>
@@ -13287,7 +13287,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S122" t="inlineStr"/>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S123" t="inlineStr"/>
@@ -13495,7 +13495,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S124" t="inlineStr"/>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S125" t="inlineStr"/>
@@ -13703,7 +13703,7 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S126" t="inlineStr"/>
@@ -13807,7 +13807,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S127" t="inlineStr"/>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S128" t="inlineStr"/>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S129" t="inlineStr"/>
@@ -14119,7 +14119,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S130" t="inlineStr"/>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S131" t="inlineStr"/>
@@ -14327,7 +14327,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S132" t="inlineStr"/>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S133" t="inlineStr"/>
@@ -14535,7 +14535,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S134" t="inlineStr"/>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S135" t="inlineStr"/>
@@ -14743,7 +14743,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S136" t="inlineStr"/>
@@ -14847,7 +14847,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S137" t="inlineStr"/>
@@ -14951,7 +14951,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S138" t="inlineStr"/>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S139" t="inlineStr"/>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S140" t="inlineStr"/>
@@ -15263,7 +15263,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S141" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S142" t="inlineStr"/>
@@ -15471,7 +15471,7 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>f32cdab</t>
         </is>
       </c>
       <c r="S143" t="inlineStr"/>
@@ -15579,7 +15579,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>BIT 0</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S144" t="inlineStr"/>
@@ -15687,7 +15687,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>BIT 1</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S145" t="inlineStr"/>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>BIT 2</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S146" t="inlineStr"/>
@@ -15903,7 +15903,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>BIT 3</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S147" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>BIT 4</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S148" t="inlineStr"/>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>BIT 5</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S149" t="inlineStr"/>
@@ -16227,7 +16227,7 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>BIT 6</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S150" t="inlineStr"/>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>BIT 7</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S151" t="inlineStr"/>
@@ -16443,7 +16443,7 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>BIT 8</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S152" t="inlineStr"/>
@@ -16551,7 +16551,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>BIT 9</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S153" t="inlineStr"/>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>BIT 10</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S154" t="inlineStr"/>
@@ -16767,7 +16767,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>BIT 11</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S155" t="inlineStr"/>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>BIT 12</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S156" t="inlineStr"/>
@@ -16983,7 +16983,7 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>BIT 13</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S157" t="inlineStr"/>
@@ -17091,7 +17091,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>BIT 14</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S158" t="inlineStr"/>
@@ -17199,7 +17199,7 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>BIT 15</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S159" t="inlineStr"/>
@@ -17307,7 +17307,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>BIT 16</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S160" t="inlineStr"/>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>BIT 17</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S161" t="inlineStr"/>
@@ -17523,7 +17523,7 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>BIT 18</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S162" t="inlineStr"/>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>BIT 19</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S163" t="inlineStr"/>
@@ -17739,7 +17739,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>BIT 20</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S164" t="inlineStr"/>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>BIT 21</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S165" t="inlineStr"/>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>BIT 22</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S166" t="inlineStr"/>
@@ -18063,7 +18063,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>BIT 23</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S167" t="inlineStr"/>
@@ -18171,7 +18171,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>BIT 24</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S168" t="inlineStr"/>
@@ -18279,7 +18279,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>BIT 25</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S169" t="inlineStr"/>
@@ -18387,7 +18387,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>BIT 26</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S170" t="inlineStr"/>
@@ -18495,7 +18495,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>BIT 27</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S171" t="inlineStr"/>
@@ -18603,7 +18603,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>BIT 28</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S172" t="inlineStr"/>
@@ -18711,7 +18711,7 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>BIT 29</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S173" t="inlineStr"/>
@@ -18819,7 +18819,7 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>BIT 30</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S174" t="inlineStr"/>
@@ -18927,7 +18927,7 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>BIT 31</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S175" t="inlineStr"/>
@@ -19035,7 +19035,7 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>BIT 0</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S176" t="inlineStr"/>
@@ -19143,7 +19143,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>BIT 1</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S177" t="inlineStr"/>
@@ -19251,7 +19251,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>BIT 2</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S178" t="inlineStr"/>
@@ -19359,7 +19359,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>BIT 3</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S179" t="inlineStr"/>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>BIT 4</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S180" t="inlineStr"/>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>BIT 5</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S181" t="inlineStr"/>
@@ -19679,7 +19679,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>BIT 6</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S182" t="inlineStr"/>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>BIT 7</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S183" t="inlineStr"/>
@@ -19887,7 +19887,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>BIT 8</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S184" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>BIT 9</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S185" t="inlineStr"/>
@@ -20095,7 +20095,7 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>BIT 10</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S186" t="inlineStr"/>
@@ -20199,7 +20199,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>BIT 11</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S187" t="inlineStr"/>
@@ -20303,7 +20303,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>BIT 12</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S188" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>BIT 13</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S189" t="inlineStr"/>
@@ -20511,7 +20511,7 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>BIT 14</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S190" t="inlineStr"/>
@@ -20615,7 +20615,7 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>BIT 15</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S191" t="inlineStr"/>
@@ -20719,7 +20719,7 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>BIT 16</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S192" t="inlineStr"/>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>BIT 17</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S193" t="inlineStr"/>
@@ -20927,7 +20927,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>BIT 18</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S194" t="inlineStr"/>
@@ -21031,7 +21031,7 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>BIT 19</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S195" t="inlineStr"/>
@@ -21135,7 +21135,7 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>BIT 20</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S196" t="inlineStr"/>
@@ -21239,7 +21239,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>BIT 21</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S197" t="inlineStr"/>
@@ -21343,7 +21343,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>BIT 22</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S198" t="inlineStr"/>
@@ -21447,7 +21447,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>BIT 23</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S199" t="inlineStr"/>
@@ -21551,7 +21551,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>BIT 24</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S200" t="inlineStr"/>
@@ -21655,7 +21655,7 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>BIT 25</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S201" t="inlineStr"/>
@@ -21759,7 +21759,7 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>BIT 26</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S202" t="inlineStr"/>
@@ -21863,7 +21863,7 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>BIT 27</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S203" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>BIT 28</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S204" t="inlineStr"/>
@@ -22071,7 +22071,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>BIT 29</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S205" t="inlineStr"/>
@@ -22175,7 +22175,7 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>BIT 30</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S206" t="inlineStr"/>
@@ -22279,7 +22279,7 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>BIT 31</t>
+          <t>1bit</t>
         </is>
       </c>
       <c r="S207" t="inlineStr"/>
